--- a/biology/Médecine/Gisella_Perl/Gisella_Perl.xlsx
+++ b/biology/Médecine/Gisella_Perl/Gisella_Perl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gisella Perl (née le 10 décembre 1907 à Sighetu Marmației (Sighet) en Transylvanie et morte le 24 novembre 1988 à Herzliya en Israël) est une gynécologue américaine, rescapée d'Auschwitz.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'époque de sa naissance la Transylvanie fait partie de l'Empire austro-hongrois avant de devenir une province roumaine après la Première Guerre mondiale. Juive, elle parvient à faire des études de médecine et devient gynécologue. Pour obtenir de son père l'autorisation de faire des études, elle lui a promis qu'elle resterait une « vraie juive ». Elle exerce sa profession à l'hôpital de Sighet jusqu'à l'invasion allemande en mars 1944. Les juifs de Sighet sont enfermés dans un ghetto. Gisella Perl est réquisitionnée pour organiser l'hôpital du ghetto. Son mari devient le président du Conseil juif du ghetto. Les occupants du ghetto sont déportés à Auschwitz en deux semaines.
 Elle est déportée à Auschwitz où elle est affectée à l'hôpital du camp. Elle est témoin des expérimentations médicale des nazis. Un jour, elle voit sept cents jeunes femmes juives allongées par terre à qui les SS prélevaient du sang. En tant que médecin, elle ne peut pratiquement rien faire pour aider les femmes qui arrivent au Revier. Sa principale aide consiste à leur parler pour les réconforter. S'occuper des femmes enceintes devient peu à peu sa principale raison de lutter. Elle les fait avorter ou accoucher clandestinement pour les sauver des expérimentations des SS.
